--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_629.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_629.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g33182-d84133-Reviews-Redac_Gateway_Hotel-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>87</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Redac-Gateway-Hotel-In-Torrance.h6027.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_629.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_629.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="286">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,738 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/08/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d84133-r563632428-Redac_Gateway_Hotel-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>33182</t>
+  </si>
+  <si>
+    <t>84133</t>
+  </si>
+  <si>
+    <t>563632428</t>
+  </si>
+  <si>
+    <t>03/01/2018</t>
+  </si>
+  <si>
+    <t>Quiet, convenient, clean, high quality hotel at a decent price</t>
+  </si>
+  <si>
+    <t>I chose this hotel because of the price and the deal I found on Expedia which included a much lower price than anticipated and free breakfast buffet ($12 or $13 value for each day) for each day of our stay. I also chose it for it's proximity to Redondo Beach. We stayed 3 nights in August 2017. It has Japanese influences, including a small selection of Japanese items at the breakfast buffet. This hotel attracts a lot of business travelers from Asia. The room and bathroom are nice and modern. There's a refrigerator and microwave in the room. The toilet is one of those bidet toilets. I didn't use the spray features, but it's there for anyone who knows how to use it lol. The hotel lobby is nice and modern. The breakfast is decent, but definitely not worth the $12 or $13 for it. There is no pool, but the beach is about a ten minute drive away. There may not seem to be a lot of parking but we never had any issues finding parking and we always found a spot in the front. The area that the hotel is located seems like a decent area, there are residential homes across the street. Nothing is really within walking distance, but restaurants are a 5 minute drive away. The front desk staff was very nice and helpful. I have recommended this hotel to others, and I would definitely stay...I chose this hotel because of the price and the deal I found on Expedia which included a much lower price than anticipated and free breakfast buffet ($12 or $13 value for each day) for each day of our stay. I also chose it for it's proximity to Redondo Beach. We stayed 3 nights in August 2017. It has Japanese influences, including a small selection of Japanese items at the breakfast buffet. This hotel attracts a lot of business travelers from Asia. The room and bathroom are nice and modern. There's a refrigerator and microwave in the room. The toilet is one of those bidet toilets. I didn't use the spray features, but it's there for anyone who knows how to use it lol. The hotel lobby is nice and modern. The breakfast is decent, but definitely not worth the $12 or $13 for it. There is no pool, but the beach is about a ten minute drive away. There may not seem to be a lot of parking but we never had any issues finding parking and we always found a spot in the front. The area that the hotel is located seems like a decent area, there are residential homes across the street. Nothing is really within walking distance, but restaurants are a 5 minute drive away. The front desk staff was very nice and helpful. I have recommended this hotel to others, and I would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>RGH20801, Admin Assist at Redac Gateway Hotel, responded to this reviewResponded March 13, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 13, 2018</t>
+  </si>
+  <si>
+    <t>I chose this hotel because of the price and the deal I found on Expedia which included a much lower price than anticipated and free breakfast buffet ($12 or $13 value for each day) for each day of our stay. I also chose it for it's proximity to Redondo Beach. We stayed 3 nights in August 2017. It has Japanese influences, including a small selection of Japanese items at the breakfast buffet. This hotel attracts a lot of business travelers from Asia. The room and bathroom are nice and modern. There's a refrigerator and microwave in the room. The toilet is one of those bidet toilets. I didn't use the spray features, but it's there for anyone who knows how to use it lol. The hotel lobby is nice and modern. The breakfast is decent, but definitely not worth the $12 or $13 for it. There is no pool, but the beach is about a ten minute drive away. There may not seem to be a lot of parking but we never had any issues finding parking and we always found a spot in the front. The area that the hotel is located seems like a decent area, there are residential homes across the street. Nothing is really within walking distance, but restaurants are a 5 minute drive away. The front desk staff was very nice and helpful. I have recommended this hotel to others, and I would definitely stay...I chose this hotel because of the price and the deal I found on Expedia which included a much lower price than anticipated and free breakfast buffet ($12 or $13 value for each day) for each day of our stay. I also chose it for it's proximity to Redondo Beach. We stayed 3 nights in August 2017. It has Japanese influences, including a small selection of Japanese items at the breakfast buffet. This hotel attracts a lot of business travelers from Asia. The room and bathroom are nice and modern. There's a refrigerator and microwave in the room. The toilet is one of those bidet toilets. I didn't use the spray features, but it's there for anyone who knows how to use it lol. The hotel lobby is nice and modern. The breakfast is decent, but definitely not worth the $12 or $13 for it. There is no pool, but the beach is about a ten minute drive away. There may not seem to be a lot of parking but we never had any issues finding parking and we always found a spot in the front. The area that the hotel is located seems like a decent area, there are residential homes across the street. Nothing is really within walking distance, but restaurants are a 5 minute drive away. The front desk staff was very nice and helpful. I have recommended this hotel to others, and I would definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d84133-r562878360-Redac_Gateway_Hotel-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>562878360</t>
+  </si>
+  <si>
+    <t>02/26/2018</t>
+  </si>
+  <si>
+    <t>Good place to rest</t>
+  </si>
+  <si>
+    <t>We stayed 2 nights there. We choose the hotel driven by the good comments here. The hotel is japanese oriented, perfect for us that were traveling in our way to Tokyo. Eventhough we arrived early in the morning, our idea was to leave our bags and make check in at the evening but our room was already available and we made and early check in without issues. The breakfast was much better than i expected and the service in general was great. The only thing i did not like was that the hotel had a shuttle service from and to LAX but only available to corporate clients, even when the shuttle is only carrying one or two persons as happened in our case, we had to take an uber and paid 25 usd that could had been saved if we were able to use the shuttleMoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>RGH20801, Admin Assit at Redac Gateway Hotel, responded to this reviewResponded February 28, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 28, 2018</t>
+  </si>
+  <si>
+    <t>We stayed 2 nights there. We choose the hotel driven by the good comments here. The hotel is japanese oriented, perfect for us that were traveling in our way to Tokyo. Eventhough we arrived early in the morning, our idea was to leave our bags and make check in at the evening but our room was already available and we made and early check in without issues. The breakfast was much better than i expected and the service in general was great. The only thing i did not like was that the hotel had a shuttle service from and to LAX but only available to corporate clients, even when the shuttle is only carrying one or two persons as happened in our case, we had to take an uber and paid 25 usd that could had been saved if we were able to use the shuttleMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d84133-r557029669-Redac_Gateway_Hotel-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>557029669</t>
+  </si>
+  <si>
+    <t>01/28/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Convenient and a Value</t>
+  </si>
+  <si>
+    <t>I got a great deal for $80 inc tax. Rare find at that rate.  One could pay 50% more and I would call it a value. Check in/out and purchasing snacks at front desk was friendly and helpful.  Rooms are a bit aged but clean and very large. Bathroom has Japanese heated toilet seat with standard features. Microwave and small fridge. A/C was fairly quiet but still helped to drown out road noise.  Bathroom fans are noisy but they only run when you turn on bathroom lights. TV with some cable stations. Convenient location. Near old downtown Torrance and Japanese stores. Traveling to/from LAX was 20-25 minutes on a weekend. Certainly would stay here again. MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>RGH20801, other at Redac Gateway Hotel, responded to this reviewResponded February 5, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 5, 2018</t>
+  </si>
+  <si>
+    <t>I got a great deal for $80 inc tax. Rare find at that rate.  One could pay 50% more and I would call it a value. Check in/out and purchasing snacks at front desk was friendly and helpful.  Rooms are a bit aged but clean and very large. Bathroom has Japanese heated toilet seat with standard features. Microwave and small fridge. A/C was fairly quiet but still helped to drown out road noise.  Bathroom fans are noisy but they only run when you turn on bathroom lights. TV with some cable stations. Convenient location. Near old downtown Torrance and Japanese stores. Traveling to/from LAX was 20-25 minutes on a weekend. Certainly would stay here again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d84133-r548051034-Redac_Gateway_Hotel-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>548051034</t>
+  </si>
+  <si>
+    <t>12/19/2017</t>
+  </si>
+  <si>
+    <t>terrible hotel, terrible smell</t>
+  </si>
+  <si>
+    <t>I stayed there a little over a week ago. There was a weird smell throughout the hotel lobbies and it was worse in my room. There was a nasty hair in the shower and the room was bare. There was stuff left over from the person that stayed in my room before me which I find unsettling. Said there was room service - no room service. The power went out while I was there. Then I get the bill and have mysterious charges. They did not go over any charges with me and just snuck them on there. Found out it was a smoking fee and a room charge fee. I never charged anything to the room -couldn't as they don't have room service. And the whole building smells. There was reminisce of the previous guest in my room. And now I'm getting billed for their issues. Will not return.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>RGH20801, Public Relations Manager at Redac Gateway Hotel, responded to this reviewResponded January 16, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 16, 2018</t>
+  </si>
+  <si>
+    <t>I stayed there a little over a week ago. There was a weird smell throughout the hotel lobbies and it was worse in my room. There was a nasty hair in the shower and the room was bare. There was stuff left over from the person that stayed in my room before me which I find unsettling. Said there was room service - no room service. The power went out while I was there. Then I get the bill and have mysterious charges. They did not go over any charges with me and just snuck them on there. Found out it was a smoking fee and a room charge fee. I never charged anything to the room -couldn't as they don't have room service. And the whole building smells. There was reminisce of the previous guest in my room. And now I'm getting billed for their issues. Will not return.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d84133-r547363719-Redac_Gateway_Hotel-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>547363719</t>
+  </si>
+  <si>
+    <t>12/15/2017</t>
+  </si>
+  <si>
+    <t>Large room, very nice bathroom</t>
+  </si>
+  <si>
+    <t>We stayed 1 night. The room was a little bare of furniture and lighting. Very comfortable bed. I loved the heated toilet seat, nice fluffy towels. Good parking and very quiet in general. We didn't use the restaurant. Good wifi. I gave it only 3 stars because when we walked on the carpet in our socks there were several wet spots, from previous stains?  There were more visible stains , also ants in the bathtub. And they only had decaf coffee.MoreShow less</t>
+  </si>
+  <si>
+    <t>RGH20801, Guest Relations Manager at Redac Gateway Hotel, responded to this reviewResponded January 16, 2018</t>
+  </si>
+  <si>
+    <t>We stayed 1 night. The room was a little bare of furniture and lighting. Very comfortable bed. I loved the heated toilet seat, nice fluffy towels. Good parking and very quiet in general. We didn't use the restaurant. Good wifi. I gave it only 3 stars because when we walked on the carpet in our socks there were several wet spots, from previous stains?  There were more visible stains , also ants in the bathtub. And they only had decaf coffee.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d84133-r543902764-Redac_Gateway_Hotel-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>543902764</t>
+  </si>
+  <si>
+    <t>11/28/2017</t>
+  </si>
+  <si>
+    <t>Disappointed</t>
+  </si>
+  <si>
+    <t>I have stayed here in the past and always had a great experience. The rooms were always clean, beds comfortable, bathroom clean; it was really one of the nicer places I had stayed at. However, my most recent stay has resulted in me never returning. The room was in great shape the last time I stayed here and the staff was exceptional. Unfortunately, between my stay in March and my most recent stay this month, things have seemed to go downhill. I booked my room as a last minute booking when my friend and I needed to stay in SoCal an extra night. The rate was amazing and based on my past experience, I was excited to return. Check-in was pleasant, as always. Things changed once we got to the room. The door was in poor shape and there was a lot of rust around the frame. Upon entering, the room smelled strange, but we ignored it. The bathroom doorframe also had rusting around it. The bed was comfortable, though, and I was able to checkout with no issues. Until I looked at my credit card activity and saw that I had been charged $250. Not sure why, I called the hotel. They said they would give my number to the manager and they would call me back with an answer. They never called me back. I had to call 5 more times before I had an answer, it was...I have stayed here in the past and always had a great experience. The rooms were always clean, beds comfortable, bathroom clean; it was really one of the nicer places I had stayed at. However, my most recent stay has resulted in me never returning. The room was in great shape the last time I stayed here and the staff was exceptional. Unfortunately, between my stay in March and my most recent stay this month, things have seemed to go downhill. I booked my room as a last minute booking when my friend and I needed to stay in SoCal an extra night. The rate was amazing and based on my past experience, I was excited to return. Check-in was pleasant, as always. Things changed once we got to the room. The door was in poor shape and there was a lot of rust around the frame. Upon entering, the room smelled strange, but we ignored it. The bathroom doorframe also had rusting around it. The bed was comfortable, though, and I was able to checkout with no issues. Until I looked at my credit card activity and saw that I had been charged $250. Not sure why, I called the hotel. They said they would give my number to the manager and they would call me back with an answer. They never called me back. I had to call 5 more times before I had an answer, it was for smoking. I never smoked in the room, as my friend and I are non-smokers. I explained this to the front desk, due to the fact that the manager refused to talk to me, and they insisted that a refund would not be given because housekeeping claimed the room "smelled funny" upon checkout. I know that the room smelled strange upon entering, but I didn't realize that not mentioning this would cost me in the end. I loved this place, but will not be staying after the poor customer service I experienced.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>RGH20801, Admin Assist at Redac Gateway Hotel, responded to this reviewResponded November 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 29, 2017</t>
+  </si>
+  <si>
+    <t>I have stayed here in the past and always had a great experience. The rooms were always clean, beds comfortable, bathroom clean; it was really one of the nicer places I had stayed at. However, my most recent stay has resulted in me never returning. The room was in great shape the last time I stayed here and the staff was exceptional. Unfortunately, between my stay in March and my most recent stay this month, things have seemed to go downhill. I booked my room as a last minute booking when my friend and I needed to stay in SoCal an extra night. The rate was amazing and based on my past experience, I was excited to return. Check-in was pleasant, as always. Things changed once we got to the room. The door was in poor shape and there was a lot of rust around the frame. Upon entering, the room smelled strange, but we ignored it. The bathroom doorframe also had rusting around it. The bed was comfortable, though, and I was able to checkout with no issues. Until I looked at my credit card activity and saw that I had been charged $250. Not sure why, I called the hotel. They said they would give my number to the manager and they would call me back with an answer. They never called me back. I had to call 5 more times before I had an answer, it was...I have stayed here in the past and always had a great experience. The rooms were always clean, beds comfortable, bathroom clean; it was really one of the nicer places I had stayed at. However, my most recent stay has resulted in me never returning. The room was in great shape the last time I stayed here and the staff was exceptional. Unfortunately, between my stay in March and my most recent stay this month, things have seemed to go downhill. I booked my room as a last minute booking when my friend and I needed to stay in SoCal an extra night. The rate was amazing and based on my past experience, I was excited to return. Check-in was pleasant, as always. Things changed once we got to the room. The door was in poor shape and there was a lot of rust around the frame. Upon entering, the room smelled strange, but we ignored it. The bathroom doorframe also had rusting around it. The bed was comfortable, though, and I was able to checkout with no issues. Until I looked at my credit card activity and saw that I had been charged $250. Not sure why, I called the hotel. They said they would give my number to the manager and they would call me back with an answer. They never called me back. I had to call 5 more times before I had an answer, it was for smoking. I never smoked in the room, as my friend and I are non-smokers. I explained this to the front desk, due to the fact that the manager refused to talk to me, and they insisted that a refund would not be given because housekeeping claimed the room "smelled funny" upon checkout. I know that the room smelled strange upon entering, but I didn't realize that not mentioning this would cost me in the end. I loved this place, but will not be staying after the poor customer service I experienced.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d84133-r539547489-Redac_Gateway_Hotel-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>539547489</t>
+  </si>
+  <si>
+    <t>11/08/2017</t>
+  </si>
+  <si>
+    <t>Clean property and VERY kind staff!</t>
+  </si>
+  <si>
+    <t>The bed was very comfortable, clean room, the automatic toilet with the spraying water for personal hygiene, gym and kind staff were our favorites for this hotel. We also had a business meeting on property with 3 people and the meeting space was quiet, cozy and clean.My hubby enjoyed the breakfast and he is pretty picky. ;)We will be back for sure! Thank you!MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>RGH20801, Admin Assist. at Redac Gateway Hotel, responded to this reviewResponded November 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 17, 2017</t>
+  </si>
+  <si>
+    <t>The bed was very comfortable, clean room, the automatic toilet with the spraying water for personal hygiene, gym and kind staff were our favorites for this hotel. We also had a business meeting on property with 3 people and the meeting space was quiet, cozy and clean.My hubby enjoyed the breakfast and he is pretty picky. ;)We will be back for sure! Thank you!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d84133-r539243273-Redac_Gateway_Hotel-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>539243273</t>
+  </si>
+  <si>
+    <t>11/07/2017</t>
+  </si>
+  <si>
+    <t>Great hotel!</t>
+  </si>
+  <si>
+    <t>Staff was very friendly and accommodating.  Had to ask for a few items like extra coffe and some toiletries that I forgot to bring and they delivered them to the room within a few minutes.  The room was comfortable, clean, and quiet.  They had a good sized tv, free wifi, a refrigerator, a coffee maker and a microwave.  The beds were very comfortable, even more so than my own.  I would definitely stay again and would recommend them to friends and family.  Two thumbs up!!MoreShow less</t>
+  </si>
+  <si>
+    <t>RGH20801, Admin Assit. at Redac Gateway Hotel, responded to this reviewResponded November 17, 2017</t>
+  </si>
+  <si>
+    <t>Staff was very friendly and accommodating.  Had to ask for a few items like extra coffe and some toiletries that I forgot to bring and they delivered them to the room within a few minutes.  The room was comfortable, clean, and quiet.  They had a good sized tv, free wifi, a refrigerator, a coffee maker and a microwave.  The beds were very comfortable, even more so than my own.  I would definitely stay again and would recommend them to friends and family.  Two thumbs up!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d84133-r534654316-Redac_Gateway_Hotel-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>534654316</t>
+  </si>
+  <si>
+    <t>10/20/2017</t>
+  </si>
+  <si>
+    <t>Redac Stay</t>
+  </si>
+  <si>
+    <t>I am actually blown away at how nice this hotel was.   It was super clean and roomy!  By far better than most hotels I stay in.  The only thing I would say that needs to be corrected was the TV reception was terrible.   And the wires were hanging out from behind the TV.  I was really surprised to see the restroom had a bidet!  The bed was comfortable and the shower was super clean.  I would definitely stay here again. There was also massage chairs upstairs for a few bucks.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>RGH20801, Admin Assit at Redac Gateway Hotel, responded to this reviewResponded November 17, 2017</t>
+  </si>
+  <si>
+    <t>I am actually blown away at how nice this hotel was.   It was super clean and roomy!  By far better than most hotels I stay in.  The only thing I would say that needs to be corrected was the TV reception was terrible.   And the wires were hanging out from behind the TV.  I was really surprised to see the restroom had a bidet!  The bed was comfortable and the shower was super clean.  I would definitely stay here again. There was also massage chairs upstairs for a few bucks.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d84133-r525541094-Redac_Gateway_Hotel-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>525541094</t>
+  </si>
+  <si>
+    <t>09/18/2017</t>
+  </si>
+  <si>
+    <t>Very nice place to stay in Torrance.  Good value.</t>
+  </si>
+  <si>
+    <t>Location was great.  Very close to many shops and restaurants (Japanese) nearby.  Renovated recently and rooms got better  Nice bed and plush pillows.Nice buffet breakfast (western &amp; Japanese).  Definitely we will stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>RGH20801, Admin Assist at Redac Gateway Hotel, responded to this reviewResponded November 17, 2017</t>
+  </si>
+  <si>
+    <t>Location was great.  Very close to many shops and restaurants (Japanese) nearby.  Renovated recently and rooms got better  Nice bed and plush pillows.Nice buffet breakfast (western &amp; Japanese).  Definitely we will stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d84133-r522112316-Redac_Gateway_Hotel-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>522112316</t>
+  </si>
+  <si>
+    <t>09/06/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Friendly service, very clean and comfortable </t>
+  </si>
+  <si>
+    <t>I think my title says it all! This was our 3rd hotel out of 5 that week and by far the best! Beds were comfortable, friendly service and rooms &amp; hotel was clean! They have a nice outdoor area where you can relax on chairs with tables and a bar if that's what you're looking for. I would definitely stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>I think my title says it all! This was our 3rd hotel out of 5 that week and by far the best! Beds were comfortable, friendly service and rooms &amp; hotel was clean! They have a nice outdoor area where you can relax on chairs with tables and a bar if that's what you're looking for. I would definitely stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d84133-r522034950-Redac_Gateway_Hotel-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>522034950</t>
+  </si>
+  <si>
+    <t>10s Across the Board!!!! :-)</t>
+  </si>
+  <si>
+    <t>I'd given up on finding affordable hotels in LA. My go-to has been Airbnb whenever I'd visit LA. Then came across Redac Gateway Hotel. It was a business trip that I had to bring my kids. This hotel is perfect when you're on a budget, but still want to have an enjoyable experience that doesn't feel like you're on a budget. The hotel is clean, modern, with free water and coffee all day. There are water dispensers in the gym...yes there's a gym, the restaurant area and in front lobby. Also there's a coin operated laundry room. Perfect when you're hitting the beach daily with kids. Speaking of beach there's a free shuttle to Redondo beach (or any location 15 min from hotel). You just schedule in advance with the front desk. And, drumroll, free breakfast for 2 guests in the restaurant. Did I mention free parking? And a free business center where you can print documents for free.
+The room is comfortable and clean. The shower water pressure is heavenly. The toiletries are from the bath and body works aromatherapy collection (eucalyptus and spearmint). There's a microwave and mini fridge in the room which is super helpful with kids (and grownups).
+There's no room service, but there are snacks at the front desk. Besides free the breakfast buffet, the restaurant offers small plate appetizers from 6-10pm. You'll want to plan your lunch and dinner away from the hotel. But...I'd given up on finding affordable hotels in LA. My go-to has been Airbnb whenever I'd visit LA. Then came across Redac Gateway Hotel. It was a business trip that I had to bring my kids. This hotel is perfect when you're on a budget, but still want to have an enjoyable experience that doesn't feel like you're on a budget. The hotel is clean, modern, with free water and coffee all day. There are water dispensers in the gym...yes there's a gym, the restaurant area and in front lobby. Also there's a coin operated laundry room. Perfect when you're hitting the beach daily with kids. Speaking of beach there's a free shuttle to Redondo beach (or any location 15 min from hotel). You just schedule in advance with the front desk. And, drumroll, free breakfast for 2 guests in the restaurant. Did I mention free parking? And a free business center where you can print documents for free.The room is comfortable and clean. The shower water pressure is heavenly. The toiletries are from the bath and body works aromatherapy collection (eucalyptus and spearmint). There's a microwave and mini fridge in the room which is super helpful with kids (and grownups).There's no room service, but there are snacks at the front desk. Besides free the breakfast buffet, the restaurant offers small plate appetizers from 6-10pm. You'll want to plan your lunch and dinner away from the hotel. But there's a boardwalk at Redondo beach where the free shuttle drops off with lots of good food spots, gelato, boardwalk eats.This place is a winner. I highly recommend!! Will definitely return...especially when I'm traveling with the kiddos.MoreShow less</t>
+  </si>
+  <si>
+    <t>I'd given up on finding affordable hotels in LA. My go-to has been Airbnb whenever I'd visit LA. Then came across Redac Gateway Hotel. It was a business trip that I had to bring my kids. This hotel is perfect when you're on a budget, but still want to have an enjoyable experience that doesn't feel like you're on a budget. The hotel is clean, modern, with free water and coffee all day. There are water dispensers in the gym...yes there's a gym, the restaurant area and in front lobby. Also there's a coin operated laundry room. Perfect when you're hitting the beach daily with kids. Speaking of beach there's a free shuttle to Redondo beach (or any location 15 min from hotel). You just schedule in advance with the front desk. And, drumroll, free breakfast for 2 guests in the restaurant. Did I mention free parking? And a free business center where you can print documents for free.
+The room is comfortable and clean. The shower water pressure is heavenly. The toiletries are from the bath and body works aromatherapy collection (eucalyptus and spearmint). There's a microwave and mini fridge in the room which is super helpful with kids (and grownups).
+There's no room service, but there are snacks at the front desk. Besides free the breakfast buffet, the restaurant offers small plate appetizers from 6-10pm. You'll want to plan your lunch and dinner away from the hotel. But...I'd given up on finding affordable hotels in LA. My go-to has been Airbnb whenever I'd visit LA. Then came across Redac Gateway Hotel. It was a business trip that I had to bring my kids. This hotel is perfect when you're on a budget, but still want to have an enjoyable experience that doesn't feel like you're on a budget. The hotel is clean, modern, with free water and coffee all day. There are water dispensers in the gym...yes there's a gym, the restaurant area and in front lobby. Also there's a coin operated laundry room. Perfect when you're hitting the beach daily with kids. Speaking of beach there's a free shuttle to Redondo beach (or any location 15 min from hotel). You just schedule in advance with the front desk. And, drumroll, free breakfast for 2 guests in the restaurant. Did I mention free parking? And a free business center where you can print documents for free.The room is comfortable and clean. The shower water pressure is heavenly. The toiletries are from the bath and body works aromatherapy collection (eucalyptus and spearmint). There's a microwave and mini fridge in the room which is super helpful with kids (and grownups).There's no room service, but there are snacks at the front desk. Besides free the breakfast buffet, the restaurant offers small plate appetizers from 6-10pm. You'll want to plan your lunch and dinner away from the hotel. But there's a boardwalk at Redondo beach where the free shuttle drops off with lots of good food spots, gelato, boardwalk eats.This place is a winner. I highly recommend!! Will definitely return...especially when I'm traveling with the kiddos.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d84133-r510299301-Redac_Gateway_Hotel-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>510299301</t>
+  </si>
+  <si>
+    <t>08/08/2017</t>
+  </si>
+  <si>
+    <t>Modern Room - Good for Business</t>
+  </si>
+  <si>
+    <t>The rooms are well fitted for the business traveller. Adequate lighting, large work tables and spacious.The Doors (like ALL 3 Star hotels) leak sound and hence a room further away from the lifts mimimise the number of people passing your door.My stay was only marred by a young (Male/ Middle Eastern) Smart Alec Check-In person who's couldn't-care-less attitude showed loud &amp; clear.If I was his Manager I would have kicked him with a Size 13 boot.....   All in all - great stay and great breakfast - Yes, I would stay again....</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d84133-r506214282-Redac_Gateway_Hotel-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>506214282</t>
+  </si>
+  <si>
+    <t>07/27/2017</t>
+  </si>
+  <si>
+    <t>Home away from home...</t>
+  </si>
+  <si>
+    <t>I do all my stays at the Redac. The staff are so personable and cater to any needs you have. They greet me by my name all the time, as well I know each individuals names too.It is a step above for the cleanliness, atmosphere, breakfast and very quaint.I would not stay anywhere else.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>RGH20801, Guest Relations Manager at Redac Gateway Hotel, responded to this reviewResponded July 31, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 31, 2017</t>
+  </si>
+  <si>
+    <t>I do all my stays at the Redac. The staff are so personable and cater to any needs you have. They greet me by my name all the time, as well I know each individuals names too.It is a step above for the cleanliness, atmosphere, breakfast and very quaint.I would not stay anywhere else.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d84133-r506002787-Redac_Gateway_Hotel-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>506002787</t>
+  </si>
+  <si>
+    <t>07/26/2017</t>
+  </si>
+  <si>
+    <t>Love the atmosphere!!!</t>
+  </si>
+  <si>
+    <t>The rooms are clean!! Spacious for my family of 5. Didn't care about HD TV I am on vacation.  The front desk associates were friendly and helpful with all our needs. Thank you for all you've done for us while we stayed with you! Will look forward to staying with you all again!MoreShow less</t>
+  </si>
+  <si>
+    <t>The rooms are clean!! Spacious for my family of 5. Didn't care about HD TV I am on vacation.  The front desk associates were friendly and helpful with all our needs. Thank you for all you've done for us while we stayed with you! Will look forward to staying with you all again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d84133-r500075401-Redac_Gateway_Hotel-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>500075401</t>
+  </si>
+  <si>
+    <t>07/09/2017</t>
+  </si>
+  <si>
+    <t>quiet hotel, friendly staff, clean rooms</t>
+  </si>
+  <si>
+    <t>This is a quiet hotel and the staff is friendly.  The rooms are clean and they have a great breakfast.  there is a gym in the hotel.    Ask for a different pillow if the one in the room is too stiff or too soft.MoreShow less</t>
+  </si>
+  <si>
+    <t>RGH20801, Guest Relations Manager at Redac Gateway Hotel, responded to this reviewResponded July 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 11, 2017</t>
+  </si>
+  <si>
+    <t>This is a quiet hotel and the staff is friendly.  The rooms are clean and they have a great breakfast.  there is a gym in the hotel.    Ask for a different pillow if the one in the room is too stiff or too soft.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d84133-r498599819-Redac_Gateway_Hotel-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>498599819</t>
+  </si>
+  <si>
+    <t>07/04/2017</t>
+  </si>
+  <si>
+    <t>Very nice and fancy hotel</t>
+  </si>
+  <si>
+    <t>I was surprised by the hotel very clean and inviting, I slept very well.  Very nice, updated, clean and the most important thing there was plenty of parking spaces.  The frontier lady was very nice and inviting, I will stay here in the future and the price was very affordable.MoreShow less</t>
+  </si>
+  <si>
+    <t>RGH20801, Guest Relations Manager at Redac Gateway Hotel, responded to this reviewResponded July 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 6, 2017</t>
+  </si>
+  <si>
+    <t>I was surprised by the hotel very clean and inviting, I slept very well.  Very nice, updated, clean and the most important thing there was plenty of parking spaces.  The frontier lady was very nice and inviting, I will stay here in the future and the price was very affordable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d84133-r498346555-Redac_Gateway_Hotel-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>498346555</t>
+  </si>
+  <si>
+    <t>07/03/2017</t>
+  </si>
+  <si>
+    <t>I expected better but got mediocre.</t>
+  </si>
+  <si>
+    <t>This place is clean, simple and modern. The rooms have a small fridge and microwave, very spacious room (we got a King bed room) and bathroom. I appreciated their insight into making everything accessible for persons with disabilities. The doors are wide and I noticed a shower chair you can hook up if needed for the tub. My first impression when we opened the room was, though it looked clean and tidy, the fixtures seemed cheap and felt they were falling apart. We walked in and felt "lopsided" maybe because the headboard was not installed straight or the floor was at a slight angle. My 2 year old noticed it and literally started crying and saying "i'm falling." Finally the towel holder bar did fall out of place and onto the ground. The sink faucet looked great but again felt cheap.  Although the design and concept was in mind, you can tell the materials are not good, long lasting quality. After a few years this place will be even more run down. I guess the bidet in the toilet was helpful.
+The hotel faces a busy street so unless you have the AC running, you will hear the traffic noise. And don't expect HD on the TV because it was really bad reception and poor definition on their flat screens. For the price I expected a higher more (regular) standard. If you want a traditional American, run of the mill...This place is clean, simple and modern. The rooms have a small fridge and microwave, very spacious room (we got a King bed room) and bathroom. I appreciated their insight into making everything accessible for persons with disabilities. The doors are wide and I noticed a shower chair you can hook up if needed for the tub. My first impression when we opened the room was, though it looked clean and tidy, the fixtures seemed cheap and felt they were falling apart. We walked in and felt "lopsided" maybe because the headboard was not installed straight or the floor was at a slight angle. My 2 year old noticed it and literally started crying and saying "i'm falling." Finally the towel holder bar did fall out of place and onto the ground. The sink faucet looked great but again felt cheap.  Although the design and concept was in mind, you can tell the materials are not good, long lasting quality. After a few years this place will be even more run down. I guess the bidet in the toilet was helpful.The hotel faces a busy street so unless you have the AC running, you will hear the traffic noise. And don't expect HD on the TV because it was really bad reception and poor definition on their flat screens. For the price I expected a higher more (regular) standard. If you want a traditional American, run of the mill type breakfast, you will not really get it here. The eggs here are very BLAND and seating is very limited so we ended up on the small couch (waiting area of the dining room). The restaurant and hotel is Japanese-based so food is more geared towards Japanese travelers (I'm assuming) with all the Asian food in the morning that I saw. There are a couple of fruits,small but limited pastries, coffee/tea, a waffle maker, yogurt and sausages available. Regardless of that it seemed good at the time for our small family of 3, I liked the free parking and more intimate feel of the hotel. What I didn't like or appreciate was upon arrival, it took about 15minutes to check in. During that whole process, the manager was loudly arguing with his employee. I could recount their whole conversation because he didn't want to confront another worker and wanted to put the burden on the fellow employee (not manager) and something about being short-staffed. It was SUPER annoying and OFF-putting to say the least. It put my initial impression in a very negative light. He apologized once or twice but went back to arguing in front of the customers (us). I was really very shocked at his behavior and wanted to say something at that moment but didn't. SUPER UNPROFESSIONAL. Overall towards the end of our 3-night stay I was content either because I forced myself to look past these things or I had funner times outside of the hotel. But after all that drama, I wished I booked at the Doubletree like I initially planned. I probably will not stay here next time I'm in town. Too many holes in our stay that I've mentioned makes me Not want to rebook here in the future, although I really wanted to look past it all and tried hard to, it was mediocre at best.MoreShow less</t>
+  </si>
+  <si>
+    <t>RGH20801, Guest Relations Manager at Redac Gateway Hotel, responded to this reviewResponded July 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 8, 2017</t>
+  </si>
+  <si>
+    <t>This place is clean, simple and modern. The rooms have a small fridge and microwave, very spacious room (we got a King bed room) and bathroom. I appreciated their insight into making everything accessible for persons with disabilities. The doors are wide and I noticed a shower chair you can hook up if needed for the tub. My first impression when we opened the room was, though it looked clean and tidy, the fixtures seemed cheap and felt they were falling apart. We walked in and felt "lopsided" maybe because the headboard was not installed straight or the floor was at a slight angle. My 2 year old noticed it and literally started crying and saying "i'm falling." Finally the towel holder bar did fall out of place and onto the ground. The sink faucet looked great but again felt cheap.  Although the design and concept was in mind, you can tell the materials are not good, long lasting quality. After a few years this place will be even more run down. I guess the bidet in the toilet was helpful.
+The hotel faces a busy street so unless you have the AC running, you will hear the traffic noise. And don't expect HD on the TV because it was really bad reception and poor definition on their flat screens. For the price I expected a higher more (regular) standard. If you want a traditional American, run of the mill...This place is clean, simple and modern. The rooms have a small fridge and microwave, very spacious room (we got a King bed room) and bathroom. I appreciated their insight into making everything accessible for persons with disabilities. The doors are wide and I noticed a shower chair you can hook up if needed for the tub. My first impression when we opened the room was, though it looked clean and tidy, the fixtures seemed cheap and felt they were falling apart. We walked in and felt "lopsided" maybe because the headboard was not installed straight or the floor was at a slight angle. My 2 year old noticed it and literally started crying and saying "i'm falling." Finally the towel holder bar did fall out of place and onto the ground. The sink faucet looked great but again felt cheap.  Although the design and concept was in mind, you can tell the materials are not good, long lasting quality. After a few years this place will be even more run down. I guess the bidet in the toilet was helpful.The hotel faces a busy street so unless you have the AC running, you will hear the traffic noise. And don't expect HD on the TV because it was really bad reception and poor definition on their flat screens. For the price I expected a higher more (regular) standard. If you want a traditional American, run of the mill type breakfast, you will not really get it here. The eggs here are very BLAND and seating is very limited so we ended up on the small couch (waiting area of the dining room). The restaurant and hotel is Japanese-based so food is more geared towards Japanese travelers (I'm assuming) with all the Asian food in the morning that I saw. There are a couple of fruits,small but limited pastries, coffee/tea, a waffle maker, yogurt and sausages available. Regardless of that it seemed good at the time for our small family of 3, I liked the free parking and more intimate feel of the hotel. What I didn't like or appreciate was upon arrival, it took about 15minutes to check in. During that whole process, the manager was loudly arguing with his employee. I could recount their whole conversation because he didn't want to confront another worker and wanted to put the burden on the fellow employee (not manager) and something about being short-staffed. It was SUPER annoying and OFF-putting to say the least. It put my initial impression in a very negative light. He apologized once or twice but went back to arguing in front of the customers (us). I was really very shocked at his behavior and wanted to say something at that moment but didn't. SUPER UNPROFESSIONAL. Overall towards the end of our 3-night stay I was content either because I forced myself to look past these things or I had funner times outside of the hotel. But after all that drama, I wished I booked at the Doubletree like I initially planned. I probably will not stay here next time I'm in town. Too many holes in our stay that I've mentioned makes me Not want to rebook here in the future, although I really wanted to look past it all and tried hard to, it was mediocre at best.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d84133-r475675874-Redac_Gateway_Hotel-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>475675874</t>
+  </si>
+  <si>
+    <t>04/14/2017</t>
+  </si>
+  <si>
+    <t>This place is beyond "horrible"</t>
+  </si>
+  <si>
+    <t>Their customer service is beyond tolerable. They are as bad as hanging a banner on their front door, saying "You are not welcome, please go elsewhere, do not ever come back to us!!".As they wish&gt; I am cancelling our corp. contract and bringing our business to somewhere else. Good luck with surviving the competition in the area. I have never experienced such horrible service before in my life.Especially, don't even try to make room reservation here. They would reject it!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>RGH20801, Guest Relations Manager at Redac Gateway Hotel, responded to this reviewResponded June 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 14, 2017</t>
+  </si>
+  <si>
+    <t>Their customer service is beyond tolerable. They are as bad as hanging a banner on their front door, saying "You are not welcome, please go elsewhere, do not ever come back to us!!".As they wish&gt; I am cancelling our corp. contract and bringing our business to somewhere else. Good luck with surviving the competition in the area. I have never experienced such horrible service before in my life.Especially, don't even try to make room reservation here. They would reject it!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d84133-r467114686-Redac_Gateway_Hotel-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>467114686</t>
+  </si>
+  <si>
+    <t>03/13/2017</t>
+  </si>
+  <si>
+    <t>Wonderful!</t>
+  </si>
+  <si>
+    <t>We live approximately 75 miles from this location, in the suburbs. To go near Los Angeles usually makes me a little nervous. This lovely little gem of a Hotel was a delight. We had a wind down drink at the bar. The bartender chatted us up about a recent remodel of the Hotel Redac. It's beautiful  The rooms were trendy but comfortable and inviting. The heated toilet seats were a treat for this country girl. The best was the breakfast buffet a combination of Japanese and American breakfast.. delicious .. I wouldn't say this is a high end place. It's warm and lovely.. that's all you need.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>We live approximately 75 miles from this location, in the suburbs. To go near Los Angeles usually makes me a little nervous. This lovely little gem of a Hotel was a delight. We had a wind down drink at the bar. The bartender chatted us up about a recent remodel of the Hotel Redac. It's beautiful  The rooms were trendy but comfortable and inviting. The heated toilet seats were a treat for this country girl. The best was the breakfast buffet a combination of Japanese and American breakfast.. delicious .. I wouldn't say this is a high end place. It's warm and lovely.. that's all you need.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d84133-r458392510-Redac_Gateway_Hotel-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>458392510</t>
+  </si>
+  <si>
+    <t>02/09/2017</t>
+  </si>
+  <si>
+    <t>Hidden Gem!!!</t>
+  </si>
+  <si>
+    <t>The staff were exceptionally friendly, courteous and do genuinely care. The hotel is extremely clean and is close to restaurants and shops. The entire hotel just remodeled. Breakfast buffet is great. A mix of Japanese food with American food.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>The staff were exceptionally friendly, courteous and do genuinely care. The hotel is extremely clean and is close to restaurants and shops. The entire hotel just remodeled. Breakfast buffet is great. A mix of Japanese food with American food.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d84133-r424411424-Redac_Gateway_Hotel-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>424411424</t>
+  </si>
+  <si>
+    <t>10/02/2016</t>
+  </si>
+  <si>
+    <t>Decent motel</t>
+  </si>
+  <si>
+    <t>Got this hotel from hotwire.com as a 3 star would not say its 3 star although the hotel is decent the staff were really helpful . The beds are quite small i am 6ft and had my feet dangling out. The brekkie was ok nothing fancy. Quick checkout  overall a decant experience.</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d84133-r397603836-Redac_Gateway_Hotel-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>397603836</t>
+  </si>
+  <si>
+    <t>07/26/2016</t>
+  </si>
+  <si>
+    <t>SURPRISE SURPRISE</t>
+  </si>
+  <si>
+    <t>Our very first stay at this nice little hotel.  Ample free parking, some of which is covered and the remainder not so.  The staff at the check-in desk were absolutely the best.  Friendly and not afraid to laugh.  Yes laugh (a old tradition) Found the room to be clean as a whistle.  I am doing the bathroom a injustice, very clean.  Now for the toilet, have no idea if this type of toilet is in every room or not, but the lid was up and there you will see a 'warning label' yes indeed.  Look to the side and saw a remote control for the toilet and that in fact it is wired up and has a small hose also attached. Before using checked back with the staff and asked if anyone has been fried sitting on the toilet.  They all broke out in laughter and assured me that it was very safe to use and no one has been torched. The restaurant in the lobby area had just opened and yet to work out a few wrinkles but the food was very good and the service not the greatest yet but am certain will be top notch in no time at all. 3 fine nights and would without any question stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Our very first stay at this nice little hotel.  Ample free parking, some of which is covered and the remainder not so.  The staff at the check-in desk were absolutely the best.  Friendly and not afraid to laugh.  Yes laugh (a old tradition) Found the room to be clean as a whistle.  I am doing the bathroom a injustice, very clean.  Now for the toilet, have no idea if this type of toilet is in every room or not, but the lid was up and there you will see a 'warning label' yes indeed.  Look to the side and saw a remote control for the toilet and that in fact it is wired up and has a small hose also attached. Before using checked back with the staff and asked if anyone has been fried sitting on the toilet.  They all broke out in laughter and assured me that it was very safe to use and no one has been torched. The restaurant in the lobby area had just opened and yet to work out a few wrinkles but the food was very good and the service not the greatest yet but am certain will be top notch in no time at all. 3 fine nights and would without any question stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d84133-r381759172-Redac_Gateway_Hotel-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>381759172</t>
+  </si>
+  <si>
+    <t>06/11/2016</t>
+  </si>
+  <si>
+    <t>Not a 3.5 Star hotel, similar to motel 6</t>
+  </si>
+  <si>
+    <t>Advertised as a 3.5 star hotel this place is a complete let down and disappointment. There are no Amenities the rooms are lacking (except the smell) bathrooms are tiny, they should have cut the hallways down by 8/10th and made the rooms bigger. Its not modern styling its just cheap, a square headboard over an awful bed is not modern. The are that the hotel sits in is horrible at 60 dollars per night this could be alot more tolerable, but because of the people giving this place good reviews (i dont know why unless the paid them, even then the good reviews really dont mention the actual property or why) they some how have a 3.5 star rating, for the price they charge they should have a pool, indoors, mini-bar in room, a bar at the lobby and a really nice restaurant. That would at least be a reason to pay the 150+ they are robbing people for. Problem is they have nothing, A really nice deceiving lobby, and a tiny restaurant that was not that great. You can find just as good at motel 6 and save a lot of money.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Advertised as a 3.5 star hotel this place is a complete let down and disappointment. There are no Amenities the rooms are lacking (except the smell) bathrooms are tiny, they should have cut the hallways down by 8/10th and made the rooms bigger. Its not modern styling its just cheap, a square headboard over an awful bed is not modern. The are that the hotel sits in is horrible at 60 dollars per night this could be alot more tolerable, but because of the people giving this place good reviews (i dont know why unless the paid them, even then the good reviews really dont mention the actual property or why) they some how have a 3.5 star rating, for the price they charge they should have a pool, indoors, mini-bar in room, a bar at the lobby and a really nice restaurant. That would at least be a reason to pay the 150+ they are robbing people for. Problem is they have nothing, A really nice deceiving lobby, and a tiny restaurant that was not that great. You can find just as good at motel 6 and save a lot of money.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d84133-r338576494-Redac_Gateway_Hotel-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>338576494</t>
+  </si>
+  <si>
+    <t>01/08/2016</t>
+  </si>
+  <si>
+    <t>Hidden Gem</t>
+  </si>
+  <si>
+    <t>I was living in Torrance at the time of my stay and checked in for an evening to finish an important project for work. The staff here is Japanese- and they cater mostly to asian businessmen- but spoke excellent English. There were some renovations going on at that time and I was warned there might be noise since my room was nearby the work area, but I heard nothing and wasn't inconvenienced at all! Rooms are small, basic and very clean. I was incredibly comfortable!</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d84133-r334718397-Redac_Gateway_Hotel-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>334718397</t>
+  </si>
+  <si>
+    <t>12/23/2015</t>
+  </si>
+  <si>
+    <t>Unique...but nice hotel...don't judge a book by it's cover...</t>
+  </si>
+  <si>
+    <t>This is a quite unique hotel.....it serves to a certain group of Asians...Japanese....Majority of the front desk staff that are Asian are 99.9% Japanese....they speak fluent Japanese...they thought I was one and greeted me in Japanese....it was kinda cool.The interior is quite decent - pretty clean and simple; rooms are clean, bathroom is a bit small but also very clean...not your glamorous, chic 5 star hotel, but quiet and comfortable and relaxing....Now the breakfast.......was really unique....you were able to request grilled salmon by request.....Nato(Japanese fermented beans) as well. They had hot miso soup and hot steamed rice....and nice hot curry to pour over..........I actually quite enjoyed it........quite hearty..I only found one downside and that breakfast closes at 9AM...so if you wake up late...no breakfast for you!..but that's ok...this place is Japanese food galore! Japanese marketplace such as Mitsuwa and Tokyo Central down and up the street (oh by the way all those Japanese markets have nice food courts at affordable price), along with Japanese restaurants.....Overall...I wouldn't mind staying here again...heck...I might just come up here over the weekend to just relax.........MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>This is a quite unique hotel.....it serves to a certain group of Asians...Japanese....Majority of the front desk staff that are Asian are 99.9% Japanese....they speak fluent Japanese...they thought I was one and greeted me in Japanese....it was kinda cool.The interior is quite decent - pretty clean and simple; rooms are clean, bathroom is a bit small but also very clean...not your glamorous, chic 5 star hotel, but quiet and comfortable and relaxing....Now the breakfast.......was really unique....you were able to request grilled salmon by request.....Nato(Japanese fermented beans) as well. They had hot miso soup and hot steamed rice....and nice hot curry to pour over..........I actually quite enjoyed it........quite hearty..I only found one downside and that breakfast closes at 9AM...so if you wake up late...no breakfast for you!..but that's ok...this place is Japanese food galore! Japanese marketplace such as Mitsuwa and Tokyo Central down and up the street (oh by the way all those Japanese markets have nice food courts at affordable price), along with Japanese restaurants.....Overall...I wouldn't mind staying here again...heck...I might just come up here over the weekend to just relax.........More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d84133-r324099446-Redac_Gateway_Hotel-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>324099446</t>
+  </si>
+  <si>
+    <t>11/03/2015</t>
+  </si>
+  <si>
+    <t>Nicely Updated</t>
+  </si>
+  <si>
+    <t>Recently spent time in Torrance area for business. I was a bit skeptical of the property upon arrival because of the obvious age of the hotel. After checking in I found myself pleasantly surprised by the very clean and nicely updated rooms. The hotel obviously caters toward the Asian market, but that should not deter anyone from considering the hotel. The staff was friendly and helpful throughout. I would consider this hotel again for any future visit to the area.</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d84133-r283512771-Redac_Gateway_Hotel-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>283512771</t>
+  </si>
+  <si>
+    <t>06/28/2015</t>
+  </si>
+  <si>
+    <t>Horrible</t>
+  </si>
+  <si>
+    <t>horrible they charged stiffs that i didnt even suppose to get charge &amp; never gave me back money. The suite room was horrible jacuzi had bugs hairs dont drain &amp; i complaint &amp; first they just cleaned. 2nd the peek hole had no glass anything it was just see through it was just horrible.It does look good service but when you stay &amp; look @ every quality doest match. Stay marriot or hilton always smooth never a problem &amp; its the same price.</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d84133-r274117728-Redac_Gateway_Hotel-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>274117728</t>
+  </si>
+  <si>
+    <t>05/23/2015</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>The place was nice, room was nice, staff were very lovely and helpful. We got the free shuttle up to the beach and back.There are lots of bus routes nearby and it was extremely close to the workplace we were visiting, very convenient! There was work happening on our floor at the time which wasn't too bad but meant that our floor was a bit dusty when coming up the stairs. Hopefully this will be done soon to clear the air a bit.We loved the breakfast.</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d84133-r260709389-Redac_Gateway_Hotel-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>260709389</t>
+  </si>
+  <si>
+    <t>03/20/2015</t>
+  </si>
+  <si>
+    <t>Very Mordern Very Quiet Very Comfortable</t>
+  </si>
+  <si>
+    <t>This hotel is a great find. it is very clean very quiet, the staff are friendly and very helpful, they make you feel important. other then the construction i give it 5 stars. The rooms are very well decorated and modern, A very comfortable memory foam bed makes it hard to get out of bed. a little bit pricey and limited parking spaces. But worth it. I didn't get a chance to try the Japanese restaurant on site but i will the next time</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d84133-r204529584-Redac_Gateway_Hotel-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>204529584</t>
+  </si>
+  <si>
+    <t>05/07/2014</t>
+  </si>
+  <si>
+    <t>Last minute booking</t>
+  </si>
+  <si>
+    <t>When our delayed flight in to LAX made us miss our connection, United airlines sent us here with their compliments and super shuttle passes. The room was adequate with a king size bed and although there were renovations in progress throughout the hotel, we decided not to look elsewhere for our second night. The hotel gets a lot of Japanese businessmen (Toyota and Honda are nearby) so breakfast was Japanese style - miso soup with tofu, steamed rice, pickled daikon slices and a fried egg! The coffee was not very nice, so we recommend getting yours from 711 down the street.</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d84133-r2510193-Redac_Gateway_Hotel-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>2510193</t>
+  </si>
+  <si>
+    <t>09/01/2004</t>
+  </si>
+  <si>
+    <t>Its my favorite little hide away the jaquzzi room very nice restraunt &amp; bar</t>
+  </si>
+  <si>
+    <t>Its a very clean nice and quiet place to stay jaquzzi rooms are something special  they have a restraunt and bar down stairs free movies and the staff are very helpfull  its my favorite lil getaway</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d84133-r1794228-Redac_Gateway_Hotel-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>1794228</t>
+  </si>
+  <si>
+    <t>04/19/2004</t>
+  </si>
+  <si>
+    <t>CRAPPY!! JOINT!</t>
+  </si>
+  <si>
+    <t>Worse place I ever visited. Bed springs POP through mattress. NO CABLE.. Onlu local TV and that is FUZZY at best. PITIFUL place. Hotel HELL!!!</t>
   </si>
 </sst>
 </file>
@@ -648,6 +1380,2061 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>21100</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="n">
+        <v>4</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>21100</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>64</v>
+      </c>
+      <c r="X3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>21100</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>72</v>
+      </c>
+      <c r="O4" t="s">
+        <v>73</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>74</v>
+      </c>
+      <c r="X4" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>21100</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>78</v>
+      </c>
+      <c r="J5" t="s">
+        <v>79</v>
+      </c>
+      <c r="K5" t="s">
+        <v>80</v>
+      </c>
+      <c r="L5" t="s">
+        <v>81</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>82</v>
+      </c>
+      <c r="O5" t="s">
+        <v>73</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>2</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>83</v>
+      </c>
+      <c r="X5" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>21100</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" t="s">
+        <v>88</v>
+      </c>
+      <c r="K6" t="s">
+        <v>89</v>
+      </c>
+      <c r="L6" t="s">
+        <v>90</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>82</v>
+      </c>
+      <c r="O6" t="s">
+        <v>63</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>4</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>91</v>
+      </c>
+      <c r="X6" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>21100</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>94</v>
+      </c>
+      <c r="J7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L7" t="s">
+        <v>97</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>98</v>
+      </c>
+      <c r="O7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>4</v>
+      </c>
+      <c r="S7" t="n">
+        <v>3</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>100</v>
+      </c>
+      <c r="X7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>21100</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>103</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>104</v>
+      </c>
+      <c r="J8" t="s">
+        <v>105</v>
+      </c>
+      <c r="K8" t="s">
+        <v>106</v>
+      </c>
+      <c r="L8" t="s">
+        <v>107</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>98</v>
+      </c>
+      <c r="O8" t="s">
+        <v>108</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>4</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>109</v>
+      </c>
+      <c r="X8" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>21100</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>112</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>113</v>
+      </c>
+      <c r="J9" t="s">
+        <v>114</v>
+      </c>
+      <c r="K9" t="s">
+        <v>115</v>
+      </c>
+      <c r="L9" t="s">
+        <v>116</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>98</v>
+      </c>
+      <c r="O9" t="s">
+        <v>63</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>117</v>
+      </c>
+      <c r="X9" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>21100</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>119</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>120</v>
+      </c>
+      <c r="J10" t="s">
+        <v>121</v>
+      </c>
+      <c r="K10" t="s">
+        <v>122</v>
+      </c>
+      <c r="L10" t="s">
+        <v>123</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>124</v>
+      </c>
+      <c r="O10" t="s">
+        <v>108</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>125</v>
+      </c>
+      <c r="X10" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>21100</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>127</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>128</v>
+      </c>
+      <c r="J11" t="s">
+        <v>129</v>
+      </c>
+      <c r="K11" t="s">
+        <v>130</v>
+      </c>
+      <c r="L11" t="s">
+        <v>131</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>132</v>
+      </c>
+      <c r="O11" t="s">
+        <v>63</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>133</v>
+      </c>
+      <c r="X11" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>21100</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>135</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>136</v>
+      </c>
+      <c r="J12" t="s">
+        <v>137</v>
+      </c>
+      <c r="K12" t="s">
+        <v>138</v>
+      </c>
+      <c r="L12" t="s">
+        <v>139</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>132</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>133</v>
+      </c>
+      <c r="X12" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>21100</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>141</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>142</v>
+      </c>
+      <c r="J13" t="s">
+        <v>137</v>
+      </c>
+      <c r="K13" t="s">
+        <v>143</v>
+      </c>
+      <c r="L13" t="s">
+        <v>144</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>132</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>133</v>
+      </c>
+      <c r="X13" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>21100</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>146</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>147</v>
+      </c>
+      <c r="J14" t="s">
+        <v>148</v>
+      </c>
+      <c r="K14" t="s">
+        <v>149</v>
+      </c>
+      <c r="L14" t="s">
+        <v>150</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>52</v>
+      </c>
+      <c r="O14" t="s">
+        <v>108</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>3</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>21100</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>151</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>152</v>
+      </c>
+      <c r="J15" t="s">
+        <v>153</v>
+      </c>
+      <c r="K15" t="s">
+        <v>154</v>
+      </c>
+      <c r="L15" t="s">
+        <v>155</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>156</v>
+      </c>
+      <c r="O15" t="s">
+        <v>108</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>157</v>
+      </c>
+      <c r="X15" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>21100</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>160</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>161</v>
+      </c>
+      <c r="J16" t="s">
+        <v>162</v>
+      </c>
+      <c r="K16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L16" t="s">
+        <v>164</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>156</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>157</v>
+      </c>
+      <c r="X16" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>21100</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>166</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>167</v>
+      </c>
+      <c r="J17" t="s">
+        <v>168</v>
+      </c>
+      <c r="K17" t="s">
+        <v>169</v>
+      </c>
+      <c r="L17" t="s">
+        <v>170</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>156</v>
+      </c>
+      <c r="O17" t="s">
+        <v>73</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>171</v>
+      </c>
+      <c r="X17" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>21100</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>174</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>175</v>
+      </c>
+      <c r="J18" t="s">
+        <v>176</v>
+      </c>
+      <c r="K18" t="s">
+        <v>177</v>
+      </c>
+      <c r="L18" t="s">
+        <v>178</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>156</v>
+      </c>
+      <c r="O18" t="s">
+        <v>108</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>179</v>
+      </c>
+      <c r="X18" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>21100</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>182</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>183</v>
+      </c>
+      <c r="J19" t="s">
+        <v>184</v>
+      </c>
+      <c r="K19" t="s">
+        <v>185</v>
+      </c>
+      <c r="L19" t="s">
+        <v>186</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="s">
+        <v>156</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>3</v>
+      </c>
+      <c r="R19" t="n">
+        <v>3</v>
+      </c>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>1</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>187</v>
+      </c>
+      <c r="X19" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>21100</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>190</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>191</v>
+      </c>
+      <c r="J20" t="s">
+        <v>192</v>
+      </c>
+      <c r="K20" t="s">
+        <v>193</v>
+      </c>
+      <c r="L20" t="s">
+        <v>194</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>195</v>
+      </c>
+      <c r="O20" t="s">
+        <v>108</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="n">
+        <v>1</v>
+      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>1</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>196</v>
+      </c>
+      <c r="X20" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>21100</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>199</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>200</v>
+      </c>
+      <c r="J21" t="s">
+        <v>201</v>
+      </c>
+      <c r="K21" t="s">
+        <v>202</v>
+      </c>
+      <c r="L21" t="s">
+        <v>203</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>204</v>
+      </c>
+      <c r="O21" t="s">
+        <v>108</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>196</v>
+      </c>
+      <c r="X21" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21100</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>206</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>207</v>
+      </c>
+      <c r="J22" t="s">
+        <v>208</v>
+      </c>
+      <c r="K22" t="s">
+        <v>209</v>
+      </c>
+      <c r="L22" t="s">
+        <v>210</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>211</v>
+      </c>
+      <c r="O22" t="s">
+        <v>108</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>196</v>
+      </c>
+      <c r="X22" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>21100</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>213</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>214</v>
+      </c>
+      <c r="J23" t="s">
+        <v>215</v>
+      </c>
+      <c r="K23" t="s">
+        <v>216</v>
+      </c>
+      <c r="L23" t="s">
+        <v>217</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>218</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>21100</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>219</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>220</v>
+      </c>
+      <c r="J24" t="s">
+        <v>221</v>
+      </c>
+      <c r="K24" t="s">
+        <v>222</v>
+      </c>
+      <c r="L24" t="s">
+        <v>223</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>224</v>
+      </c>
+      <c r="O24" t="s">
+        <v>63</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>21100</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>226</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>227</v>
+      </c>
+      <c r="J25" t="s">
+        <v>228</v>
+      </c>
+      <c r="K25" t="s">
+        <v>229</v>
+      </c>
+      <c r="L25" t="s">
+        <v>230</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="s">
+        <v>231</v>
+      </c>
+      <c r="O25" t="s">
+        <v>108</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="n">
+        <v>1</v>
+      </c>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>2</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>21100</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>233</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>234</v>
+      </c>
+      <c r="J26" t="s">
+        <v>235</v>
+      </c>
+      <c r="K26" t="s">
+        <v>236</v>
+      </c>
+      <c r="L26" t="s">
+        <v>237</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>238</v>
+      </c>
+      <c r="O26" t="s">
+        <v>108</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>4</v>
+      </c>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>21100</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>239</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>240</v>
+      </c>
+      <c r="J27" t="s">
+        <v>241</v>
+      </c>
+      <c r="K27" t="s">
+        <v>242</v>
+      </c>
+      <c r="L27" t="s">
+        <v>243</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>244</v>
+      </c>
+      <c r="O27" t="s">
+        <v>99</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>21100</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>246</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>247</v>
+      </c>
+      <c r="J28" t="s">
+        <v>248</v>
+      </c>
+      <c r="K28" t="s">
+        <v>249</v>
+      </c>
+      <c r="L28" t="s">
+        <v>250</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>251</v>
+      </c>
+      <c r="O28" t="s">
+        <v>108</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>21100</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>252</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>253</v>
+      </c>
+      <c r="J29" t="s">
+        <v>254</v>
+      </c>
+      <c r="K29" t="s">
+        <v>255</v>
+      </c>
+      <c r="L29" t="s">
+        <v>256</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>257</v>
+      </c>
+      <c r="O29" t="s">
+        <v>108</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>21100</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>258</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>259</v>
+      </c>
+      <c r="J30" t="s">
+        <v>260</v>
+      </c>
+      <c r="K30" t="s">
+        <v>261</v>
+      </c>
+      <c r="L30" t="s">
+        <v>262</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>263</v>
+      </c>
+      <c r="O30" t="s">
+        <v>108</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>21100</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>264</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>265</v>
+      </c>
+      <c r="J31" t="s">
+        <v>266</v>
+      </c>
+      <c r="K31" t="s">
+        <v>267</v>
+      </c>
+      <c r="L31" t="s">
+        <v>268</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>269</v>
+      </c>
+      <c r="O31" t="s">
+        <v>108</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>21100</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>270</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>271</v>
+      </c>
+      <c r="J32" t="s">
+        <v>272</v>
+      </c>
+      <c r="K32" t="s">
+        <v>273</v>
+      </c>
+      <c r="L32" t="s">
+        <v>274</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>275</v>
+      </c>
+      <c r="O32" t="s">
+        <v>63</v>
+      </c>
+      <c r="P32" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>3</v>
+      </c>
+      <c r="R32" t="n">
+        <v>3</v>
+      </c>
+      <c r="S32" t="n">
+        <v>4</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>3</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>21100</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>276</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>277</v>
+      </c>
+      <c r="J33" t="s">
+        <v>278</v>
+      </c>
+      <c r="K33" t="s">
+        <v>279</v>
+      </c>
+      <c r="L33" t="s">
+        <v>280</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s"/>
+      <c r="O33" t="s"/>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>21100</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>281</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>282</v>
+      </c>
+      <c r="J34" t="s">
+        <v>283</v>
+      </c>
+      <c r="K34" t="s">
+        <v>284</v>
+      </c>
+      <c r="L34" t="s">
+        <v>285</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="s"/>
+      <c r="O34" t="s"/>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>285</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_629.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_629.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="317">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>TravelingParent1</t>
+  </si>
+  <si>
     <t>07/08/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>I chose this hotel because of the price and the deal I found on Expedia which included a much lower price than anticipated and free breakfast buffet ($12 or $13 value for each day) for each day of our stay. I also chose it for it's proximity to Redondo Beach. We stayed 3 nights in August 2017. It has Japanese influences, including a small selection of Japanese items at the breakfast buffet. This hotel attracts a lot of business travelers from Asia. The room and bathroom are nice and modern. There's a refrigerator and microwave in the room. The toilet is one of those bidet toilets. I didn't use the spray features, but it's there for anyone who knows how to use it lol. The hotel lobby is nice and modern. The breakfast is decent, but definitely not worth the $12 or $13 for it. There is no pool, but the beach is about a ten minute drive away. There may not seem to be a lot of parking but we never had any issues finding parking and we always found a spot in the front. The area that the hotel is located seems like a decent area, there are residential homes across the street. Nothing is really within walking distance, but restaurants are a 5 minute drive away. The front desk staff was very nice and helpful. I have recommended this hotel to others, and I would definitely stay...I chose this hotel because of the price and the deal I found on Expedia which included a much lower price than anticipated and free breakfast buffet ($12 or $13 value for each day) for each day of our stay. I also chose it for it's proximity to Redondo Beach. We stayed 3 nights in August 2017. It has Japanese influences, including a small selection of Japanese items at the breakfast buffet. This hotel attracts a lot of business travelers from Asia. The room and bathroom are nice and modern. There's a refrigerator and microwave in the room. The toilet is one of those bidet toilets. I didn't use the spray features, but it's there for anyone who knows how to use it lol. The hotel lobby is nice and modern. The breakfast is decent, but definitely not worth the $12 or $13 for it. There is no pool, but the beach is about a ten minute drive away. There may not seem to be a lot of parking but we never had any issues finding parking and we always found a spot in the front. The area that the hotel is located seems like a decent area, there are residential homes across the street. Nothing is really within walking distance, but restaurants are a 5 minute drive away. The front desk staff was very nice and helpful. I have recommended this hotel to others, and I would definitely stay here again.More</t>
   </si>
   <si>
+    <t>Jonathan F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d84133-r562878360-Redac_Gateway_Hotel-Torrance_California.html</t>
   </si>
   <si>
@@ -219,6 +225,9 @@
     <t>We stayed 2 nights there. We choose the hotel driven by the good comments here. The hotel is japanese oriented, perfect for us that were traveling in our way to Tokyo. Eventhough we arrived early in the morning, our idea was to leave our bags and make check in at the evening but our room was already available and we made and early check in without issues. The breakfast was much better than i expected and the service in general was great. The only thing i did not like was that the hotel had a shuttle service from and to LAX but only available to corporate clients, even when the shuttle is only carrying one or two persons as happened in our case, we had to take an uber and paid 25 usd that could had been saved if we were able to use the shuttleMore</t>
   </si>
   <si>
+    <t>myinhilo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d84133-r557029669-Redac_Gateway_Hotel-Torrance_California.html</t>
   </si>
   <si>
@@ -249,6 +258,9 @@
     <t>I got a great deal for $80 inc tax. Rare find at that rate.  One could pay 50% more and I would call it a value. Check in/out and purchasing snacks at front desk was friendly and helpful.  Rooms are a bit aged but clean and very large. Bathroom has Japanese heated toilet seat with standard features. Microwave and small fridge. A/C was fairly quiet but still helped to drown out road noise.  Bathroom fans are noisy but they only run when you turn on bathroom lights. TV with some cable stations. Convenient location. Near old downtown Torrance and Japanese stores. Traveling to/from LAX was 20-25 minutes on a weekend. Certainly would stay here again. More</t>
   </si>
   <si>
+    <t>travelingbrunett2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d84133-r548051034-Redac_Gateway_Hotel-Torrance_California.html</t>
   </si>
   <si>
@@ -276,6 +288,9 @@
     <t>I stayed there a little over a week ago. There was a weird smell throughout the hotel lobbies and it was worse in my room. There was a nasty hair in the shower and the room was bare. There was stuff left over from the person that stayed in my room before me which I find unsettling. Said there was room service - no room service. The power went out while I was there. Then I get the bill and have mysterious charges. They did not go over any charges with me and just snuck them on there. Found out it was a smoking fee and a room charge fee. I never charged anything to the room -couldn't as they don't have room service. And the whole building smells. There was reminisce of the previous guest in my room. And now I'm getting billed for their issues. Will not return.More</t>
   </si>
   <si>
+    <t>califtulip</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d84133-r547363719-Redac_Gateway_Hotel-Torrance_California.html</t>
   </si>
   <si>
@@ -297,6 +312,9 @@
     <t>We stayed 1 night. The room was a little bare of furniture and lighting. Very comfortable bed. I loved the heated toilet seat, nice fluffy towels. Good parking and very quiet in general. We didn't use the restaurant. Good wifi. I gave it only 3 stars because when we walked on the carpet in our socks there were several wet spots, from previous stains?  There were more visible stains , also ants in the bathtub. And they only had decaf coffee.More</t>
   </si>
   <si>
+    <t>CharmedAngel88</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d84133-r543902764-Redac_Gateway_Hotel-Torrance_California.html</t>
   </si>
   <si>
@@ -327,6 +345,9 @@
     <t>I have stayed here in the past and always had a great experience. The rooms were always clean, beds comfortable, bathroom clean; it was really one of the nicer places I had stayed at. However, my most recent stay has resulted in me never returning. The room was in great shape the last time I stayed here and the staff was exceptional. Unfortunately, between my stay in March and my most recent stay this month, things have seemed to go downhill. I booked my room as a last minute booking when my friend and I needed to stay in SoCal an extra night. The rate was amazing and based on my past experience, I was excited to return. Check-in was pleasant, as always. Things changed once we got to the room. The door was in poor shape and there was a lot of rust around the frame. Upon entering, the room smelled strange, but we ignored it. The bathroom doorframe also had rusting around it. The bed was comfortable, though, and I was able to checkout with no issues. Until I looked at my credit card activity and saw that I had been charged $250. Not sure why, I called the hotel. They said they would give my number to the manager and they would call me back with an answer. They never called me back. I had to call 5 more times before I had an answer, it was...I have stayed here in the past and always had a great experience. The rooms were always clean, beds comfortable, bathroom clean; it was really one of the nicer places I had stayed at. However, my most recent stay has resulted in me never returning. The room was in great shape the last time I stayed here and the staff was exceptional. Unfortunately, between my stay in March and my most recent stay this month, things have seemed to go downhill. I booked my room as a last minute booking when my friend and I needed to stay in SoCal an extra night. The rate was amazing and based on my past experience, I was excited to return. Check-in was pleasant, as always. Things changed once we got to the room. The door was in poor shape and there was a lot of rust around the frame. Upon entering, the room smelled strange, but we ignored it. The bathroom doorframe also had rusting around it. The bed was comfortable, though, and I was able to checkout with no issues. Until I looked at my credit card activity and saw that I had been charged $250. Not sure why, I called the hotel. They said they would give my number to the manager and they would call me back with an answer. They never called me back. I had to call 5 more times before I had an answer, it was for smoking. I never smoked in the room, as my friend and I are non-smokers. I explained this to the front desk, due to the fact that the manager refused to talk to me, and they insisted that a refund would not be given because housekeeping claimed the room "smelled funny" upon checkout. I know that the room smelled strange upon entering, but I didn't realize that not mentioning this would cost me in the end. I loved this place, but will not be staying after the poor customer service I experienced.More</t>
   </si>
   <si>
+    <t>WanderlustGina</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d84133-r539547489-Redac_Gateway_Hotel-Torrance_California.html</t>
   </si>
   <si>
@@ -354,6 +375,9 @@
     <t>The bed was very comfortable, clean room, the automatic toilet with the spraying water for personal hygiene, gym and kind staff were our favorites for this hotel. We also had a business meeting on property with 3 people and the meeting space was quiet, cozy and clean.My hubby enjoyed the breakfast and he is pretty picky. ;)We will be back for sure! Thank you!More</t>
   </si>
   <si>
+    <t>bcamana</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d84133-r539243273-Redac_Gateway_Hotel-Torrance_California.html</t>
   </si>
   <si>
@@ -375,6 +399,9 @@
     <t>Staff was very friendly and accommodating.  Had to ask for a few items like extra coffe and some toiletries that I forgot to bring and they delivered them to the room within a few minutes.  The room was comfortable, clean, and quiet.  They had a good sized tv, free wifi, a refrigerator, a coffee maker and a microwave.  The beds were very comfortable, even more so than my own.  I would definitely stay again and would recommend them to friends and family.  Two thumbs up!!More</t>
   </si>
   <si>
+    <t>jtsmithatx</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d84133-r534654316-Redac_Gateway_Hotel-Torrance_California.html</t>
   </si>
   <si>
@@ -399,6 +426,9 @@
     <t>I am actually blown away at how nice this hotel was.   It was super clean and roomy!  By far better than most hotels I stay in.  The only thing I would say that needs to be corrected was the TV reception was terrible.   And the wires were hanging out from behind the TV.  I was really surprised to see the restroom had a bidet!  The bed was comfortable and the shower was super clean.  I would definitely stay here again. There was also massage chairs upstairs for a few bucks.More</t>
   </si>
   <si>
+    <t>SamUMR</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d84133-r525541094-Redac_Gateway_Hotel-Torrance_California.html</t>
   </si>
   <si>
@@ -423,6 +453,9 @@
     <t>Location was great.  Very close to many shops and restaurants (Japanese) nearby.  Renovated recently and rooms got better  Nice bed and plush pillows.Nice buffet breakfast (western &amp; Japanese).  Definitely we will stay there again.More</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d84133-r522112316-Redac_Gateway_Hotel-Torrance_California.html</t>
   </si>
   <si>
@@ -439,6 +472,9 @@
   </si>
   <si>
     <t>I think my title says it all! This was our 3rd hotel out of 5 that week and by far the best! Beds were comfortable, friendly service and rooms &amp; hotel was clean! They have a nice outdoor area where you can relax on chairs with tables and a bar if that's what you're looking for. I would definitely stay here again!More</t>
+  </si>
+  <si>
+    <t>jeanine888</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d84133-r522034950-Redac_Gateway_Hotel-Torrance_California.html</t>
@@ -460,6 +496,9 @@
 There's no room service, but there are snacks at the front desk. Besides free the breakfast buffet, the restaurant offers small plate appetizers from 6-10pm. You'll want to plan your lunch and dinner away from the hotel. But...I'd given up on finding affordable hotels in LA. My go-to has been Airbnb whenever I'd visit LA. Then came across Redac Gateway Hotel. It was a business trip that I had to bring my kids. This hotel is perfect when you're on a budget, but still want to have an enjoyable experience that doesn't feel like you're on a budget. The hotel is clean, modern, with free water and coffee all day. There are water dispensers in the gym...yes there's a gym, the restaurant area and in front lobby. Also there's a coin operated laundry room. Perfect when you're hitting the beach daily with kids. Speaking of beach there's a free shuttle to Redondo beach (or any location 15 min from hotel). You just schedule in advance with the front desk. And, drumroll, free breakfast for 2 guests in the restaurant. Did I mention free parking? And a free business center where you can print documents for free.The room is comfortable and clean. The shower water pressure is heavenly. The toiletries are from the bath and body works aromatherapy collection (eucalyptus and spearmint). There's a microwave and mini fridge in the room which is super helpful with kids (and grownups).There's no room service, but there are snacks at the front desk. Besides free the breakfast buffet, the restaurant offers small plate appetizers from 6-10pm. You'll want to plan your lunch and dinner away from the hotel. But there's a boardwalk at Redondo beach where the free shuttle drops off with lots of good food spots, gelato, boardwalk eats.This place is a winner. I highly recommend!! Will definitely return...especially when I'm traveling with the kiddos.More</t>
   </si>
   <si>
+    <t>env300</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d84133-r510299301-Redac_Gateway_Hotel-Torrance_California.html</t>
   </si>
   <si>
@@ -475,6 +514,9 @@
     <t>The rooms are well fitted for the business traveller. Adequate lighting, large work tables and spacious.The Doors (like ALL 3 Star hotels) leak sound and hence a room further away from the lifts mimimise the number of people passing your door.My stay was only marred by a young (Male/ Middle Eastern) Smart Alec Check-In person who's couldn't-care-less attitude showed loud &amp; clear.If I was his Manager I would have kicked him with a Size 13 boot.....   All in all - great stay and great breakfast - Yes, I would stay again....</t>
   </si>
   <si>
+    <t>Michael S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d84133-r506214282-Redac_Gateway_Hotel-Torrance_California.html</t>
   </si>
   <si>
@@ -502,6 +544,9 @@
     <t>I do all my stays at the Redac. The staff are so personable and cater to any needs you have. They greet me by my name all the time, as well I know each individuals names too.It is a step above for the cleanliness, atmosphere, breakfast and very quaint.I would not stay anywhere else.More</t>
   </si>
   <si>
+    <t>Wmmadar</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d84133-r506002787-Redac_Gateway_Hotel-Torrance_California.html</t>
   </si>
   <si>
@@ -520,6 +565,9 @@
     <t>The rooms are clean!! Spacious for my family of 5. Didn't care about HD TV I am on vacation.  The front desk associates were friendly and helpful with all our needs. Thank you for all you've done for us while we stayed with you! Will look forward to staying with you all again!More</t>
   </si>
   <si>
+    <t>Richard K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d84133-r500075401-Redac_Gateway_Hotel-Torrance_California.html</t>
   </si>
   <si>
@@ -544,6 +592,9 @@
     <t>This is a quiet hotel and the staff is friendly.  The rooms are clean and they have a great breakfast.  there is a gym in the hotel.    Ask for a different pillow if the one in the room is too stiff or too soft.More</t>
   </si>
   <si>
+    <t>fbxak79</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d84133-r498599819-Redac_Gateway_Hotel-Torrance_California.html</t>
   </si>
   <si>
@@ -566,6 +617,9 @@
   </si>
   <si>
     <t>I was surprised by the hotel very clean and inviting, I slept very well.  Very nice, updated, clean and the most important thing there was plenty of parking spaces.  The frontier lady was very nice and inviting, I will stay here in the future and the price was very affordable.More</t>
+  </si>
+  <si>
+    <t>Zed S</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d84133-r498346555-Redac_Gateway_Hotel-Torrance_California.html</t>
@@ -594,6 +648,9 @@
 The hotel faces a busy street so unless you have the AC running, you will hear the traffic noise. And don't expect HD on the TV because it was really bad reception and poor definition on their flat screens. For the price I expected a higher more (regular) standard. If you want a traditional American, run of the mill...This place is clean, simple and modern. The rooms have a small fridge and microwave, very spacious room (we got a King bed room) and bathroom. I appreciated their insight into making everything accessible for persons with disabilities. The doors are wide and I noticed a shower chair you can hook up if needed for the tub. My first impression when we opened the room was, though it looked clean and tidy, the fixtures seemed cheap and felt they were falling apart. We walked in and felt "lopsided" maybe because the headboard was not installed straight or the floor was at a slight angle. My 2 year old noticed it and literally started crying and saying "i'm falling." Finally the towel holder bar did fall out of place and onto the ground. The sink faucet looked great but again felt cheap.  Although the design and concept was in mind, you can tell the materials are not good, long lasting quality. After a few years this place will be even more run down. I guess the bidet in the toilet was helpful.The hotel faces a busy street so unless you have the AC running, you will hear the traffic noise. And don't expect HD on the TV because it was really bad reception and poor definition on their flat screens. For the price I expected a higher more (regular) standard. If you want a traditional American, run of the mill type breakfast, you will not really get it here. The eggs here are very BLAND and seating is very limited so we ended up on the small couch (waiting area of the dining room). The restaurant and hotel is Japanese-based so food is more geared towards Japanese travelers (I'm assuming) with all the Asian food in the morning that I saw. There are a couple of fruits,small but limited pastries, coffee/tea, a waffle maker, yogurt and sausages available. Regardless of that it seemed good at the time for our small family of 3, I liked the free parking and more intimate feel of the hotel. What I didn't like or appreciate was upon arrival, it took about 15minutes to check in. During that whole process, the manager was loudly arguing with his employee. I could recount their whole conversation because he didn't want to confront another worker and wanted to put the burden on the fellow employee (not manager) and something about being short-staffed. It was SUPER annoying and OFF-putting to say the least. It put my initial impression in a very negative light. He apologized once or twice but went back to arguing in front of the customers (us). I was really very shocked at his behavior and wanted to say something at that moment but didn't. SUPER UNPROFESSIONAL. Overall towards the end of our 3-night stay I was content either because I forced myself to look past these things or I had funner times outside of the hotel. But after all that drama, I wished I booked at the Doubletree like I initially planned. I probably will not stay here next time I'm in town. Too many holes in our stay that I've mentioned makes me Not want to rebook here in the future, although I really wanted to look past it all and tried hard to, it was mediocre at best.More</t>
   </si>
   <si>
+    <t>porpro</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d84133-r475675874-Redac_Gateway_Hotel-Torrance_California.html</t>
   </si>
   <si>
@@ -621,6 +678,9 @@
     <t>Their customer service is beyond tolerable. They are as bad as hanging a banner on their front door, saying "You are not welcome, please go elsewhere, do not ever come back to us!!".As they wish&gt; I am cancelling our corp. contract and bringing our business to somewhere else. Good luck with surviving the competition in the area. I have never experienced such horrible service before in my life.Especially, don't even try to make room reservation here. They would reject it!!!!More</t>
   </si>
   <si>
+    <t>Jessica L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d84133-r467114686-Redac_Gateway_Hotel-Torrance_California.html</t>
   </si>
   <si>
@@ -642,6 +702,9 @@
     <t>We live approximately 75 miles from this location, in the suburbs. To go near Los Angeles usually makes me a little nervous. This lovely little gem of a Hotel was a delight. We had a wind down drink at the bar. The bartender chatted us up about a recent remodel of the Hotel Redac. It's beautiful  The rooms were trendy but comfortable and inviting. The heated toilet seats were a treat for this country girl. The best was the breakfast buffet a combination of Japanese and American breakfast.. delicious .. I wouldn't say this is a high end place. It's warm and lovely.. that's all you need.More</t>
   </si>
   <si>
+    <t>jjg235</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d84133-r458392510-Redac_Gateway_Hotel-Torrance_California.html</t>
   </si>
   <si>
@@ -663,6 +726,9 @@
     <t>The staff were exceptionally friendly, courteous and do genuinely care. The hotel is extremely clean and is close to restaurants and shops. The entire hotel just remodeled. Breakfast buffet is great. A mix of Japanese food with American food.More</t>
   </si>
   <si>
+    <t>Sid K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d84133-r424411424-Redac_Gateway_Hotel-Torrance_California.html</t>
   </si>
   <si>
@@ -681,6 +747,9 @@
     <t>October 2016</t>
   </si>
   <si>
+    <t>bajajo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d84133-r397603836-Redac_Gateway_Hotel-Torrance_California.html</t>
   </si>
   <si>
@@ -702,6 +771,9 @@
     <t>Our very first stay at this nice little hotel.  Ample free parking, some of which is covered and the remainder not so.  The staff at the check-in desk were absolutely the best.  Friendly and not afraid to laugh.  Yes laugh (a old tradition) Found the room to be clean as a whistle.  I am doing the bathroom a injustice, very clean.  Now for the toilet, have no idea if this type of toilet is in every room or not, but the lid was up and there you will see a 'warning label' yes indeed.  Look to the side and saw a remote control for the toilet and that in fact it is wired up and has a small hose also attached. Before using checked back with the staff and asked if anyone has been fried sitting on the toilet.  They all broke out in laughter and assured me that it was very safe to use and no one has been torched. The restaurant in the lobby area had just opened and yet to work out a few wrinkles but the food was very good and the service not the greatest yet but am certain will be top notch in no time at all. 3 fine nights and would without any question stay here again.More</t>
   </si>
   <si>
+    <t>July G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d84133-r381759172-Redac_Gateway_Hotel-Torrance_California.html</t>
   </si>
   <si>
@@ -723,6 +795,9 @@
     <t>Advertised as a 3.5 star hotel this place is a complete let down and disappointment. There are no Amenities the rooms are lacking (except the smell) bathrooms are tiny, they should have cut the hallways down by 8/10th and made the rooms bigger. Its not modern styling its just cheap, a square headboard over an awful bed is not modern. The are that the hotel sits in is horrible at 60 dollars per night this could be alot more tolerable, but because of the people giving this place good reviews (i dont know why unless the paid them, even then the good reviews really dont mention the actual property or why) they some how have a 3.5 star rating, for the price they charge they should have a pool, indoors, mini-bar in room, a bar at the lobby and a really nice restaurant. That would at least be a reason to pay the 150+ they are robbing people for. Problem is they have nothing, A really nice deceiving lobby, and a tiny restaurant that was not that great. You can find just as good at motel 6 and save a lot of money.More</t>
   </si>
   <si>
+    <t>ArielleLoE</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d84133-r338576494-Redac_Gateway_Hotel-Torrance_California.html</t>
   </si>
   <si>
@@ -741,6 +816,9 @@
     <t>February 2015</t>
   </si>
   <si>
+    <t>bumsookim1985</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d84133-r334718397-Redac_Gateway_Hotel-Torrance_California.html</t>
   </si>
   <si>
@@ -762,6 +840,9 @@
     <t>This is a quite unique hotel.....it serves to a certain group of Asians...Japanese....Majority of the front desk staff that are Asian are 99.9% Japanese....they speak fluent Japanese...they thought I was one and greeted me in Japanese....it was kinda cool.The interior is quite decent - pretty clean and simple; rooms are clean, bathroom is a bit small but also very clean...not your glamorous, chic 5 star hotel, but quiet and comfortable and relaxing....Now the breakfast.......was really unique....you were able to request grilled salmon by request.....Nato(Japanese fermented beans) as well. They had hot miso soup and hot steamed rice....and nice hot curry to pour over..........I actually quite enjoyed it........quite hearty..I only found one downside and that breakfast closes at 9AM...so if you wake up late...no breakfast for you!..but that's ok...this place is Japanese food galore! Japanese marketplace such as Mitsuwa and Tokyo Central down and up the street (oh by the way all those Japanese markets have nice food courts at affordable price), along with Japanese restaurants.....Overall...I wouldn't mind staying here again...heck...I might just come up here over the weekend to just relax.........More</t>
   </si>
   <si>
+    <t>Krob2u</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d84133-r324099446-Redac_Gateway_Hotel-Torrance_California.html</t>
   </si>
   <si>
@@ -780,6 +861,9 @@
     <t>October 2015</t>
   </si>
   <si>
+    <t>Somis1223</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d84133-r283512771-Redac_Gateway_Hotel-Torrance_California.html</t>
   </si>
   <si>
@@ -798,6 +882,9 @@
     <t>June 2015</t>
   </si>
   <si>
+    <t>Emma M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d84133-r274117728-Redac_Gateway_Hotel-Torrance_California.html</t>
   </si>
   <si>
@@ -816,6 +903,9 @@
     <t>April 2015</t>
   </si>
   <si>
+    <t>ssayon</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d84133-r260709389-Redac_Gateway_Hotel-Torrance_California.html</t>
   </si>
   <si>
@@ -832,6 +922,9 @@
   </si>
   <si>
     <t>March 2015</t>
+  </si>
+  <si>
+    <t>Liz S</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d84133-r204529584-Redac_Gateway_Hotel-Torrance_California.html</t>
@@ -1384,43 +1477,47 @@
       <c r="A2" t="n">
         <v>21100</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="n">
@@ -1436,56 +1533,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>21100</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1497,56 +1598,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="X3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Y3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>21100</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1558,56 +1663,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="X4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="Y4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>21100</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>80</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="J5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="O5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P5" t="n">
         <v>1</v>
@@ -1625,56 +1734,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="X5" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Y5" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>21100</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>90</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="J6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="K6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="L6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="O6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1690,56 +1803,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="X6" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Y6" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>21100</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>98</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="J7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="L7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="M7" t="n">
         <v>2</v>
       </c>
       <c r="N7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="O7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1757,56 +1874,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="X7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="Y7" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>21100</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>109</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="J8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="L8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="O8" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1822,56 +1943,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="X8" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="Y8" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>21100</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>119</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="J9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="K9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="L9" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="O9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1883,56 +2008,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
+        <v>125</v>
+      </c>
+      <c r="X9" t="s">
         <v>117</v>
       </c>
-      <c r="X9" t="s">
-        <v>110</v>
-      </c>
       <c r="Y9" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>21100</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>127</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="J10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="K10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="L10" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="O10" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="P10" t="n">
         <v>5</v>
@@ -1950,56 +2079,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="X10" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="Y10" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>21100</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>136</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="J11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="K11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="L11" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="O11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2015,56 +2148,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="X11" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="Y11" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>21100</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>145</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="J12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="K12" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L12" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2076,56 +2213,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="X12" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="Y12" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>21100</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>152</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="J13" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="K13" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="L13" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2137,56 +2278,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="X13" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="Y13" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>21100</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>158</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="J14" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="K14" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="L14" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O14" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="P14" t="n">
         <v>4</v>
@@ -2206,50 +2351,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>21100</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>164</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="J15" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="K15" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="L15" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="O15" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2265,56 +2414,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="X15" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="Y15" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>21100</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>174</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="J16" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="K16" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="L16" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2326,56 +2479,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="X16" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="Y16" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>21100</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>181</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="J17" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="K17" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="L17" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="O17" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2391,56 +2548,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="X17" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="Y17" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>21100</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>190</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="J18" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="K18" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="L18" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="O18" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -2452,56 +2613,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="X18" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="Y18" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>21100</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>199</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="J19" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="K19" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="L19" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="M19" t="n">
         <v>2</v>
       </c>
       <c r="N19" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="n">
@@ -2519,56 +2684,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="X19" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="Y19" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>21100</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>208</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="J20" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="K20" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="L20" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="O20" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="n">
@@ -2584,56 +2753,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="X20" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="Y20" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>21100</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>218</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="J21" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="K21" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="L21" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="O21" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -2645,56 +2818,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="X21" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="Y21" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>21100</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>226</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="J22" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="K22" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="L22" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="O22" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="n">
@@ -2710,56 +2887,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="X22" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="Y22" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>21100</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>234</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="J23" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="K23" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="L23" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="M23" t="n">
         <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -2773,50 +2954,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>21100</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>241</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="J24" t="s">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="K24" t="s">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="L24" t="s">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>224</v>
+        <v>247</v>
       </c>
       <c r="O24" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="n">
@@ -2836,50 +3021,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>21100</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>249</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="J25" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="K25" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="L25" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="M25" t="n">
         <v>2</v>
       </c>
       <c r="N25" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="O25" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="P25" t="n">
         <v>1</v>
@@ -2899,50 +3088,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>21100</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>257</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>233</v>
+        <v>258</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="J26" t="s">
-        <v>235</v>
+        <v>260</v>
       </c>
       <c r="K26" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
       <c r="L26" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="O26" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="P26" t="n">
         <v>4</v>
@@ -2962,50 +3155,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>21100</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>264</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>239</v>
+        <v>265</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c r="J27" t="s">
-        <v>241</v>
+        <v>267</v>
       </c>
       <c r="K27" t="s">
-        <v>242</v>
+        <v>268</v>
       </c>
       <c r="L27" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="O27" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -3023,50 +3220,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>21100</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>272</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
       <c r="J28" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="K28" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
       <c r="L28" t="s">
-        <v>250</v>
+        <v>277</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="O28" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -3084,50 +3285,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>250</v>
+        <v>277</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>21100</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>279</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>252</v>
+        <v>280</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>253</v>
+        <v>281</v>
       </c>
       <c r="J29" t="s">
-        <v>254</v>
+        <v>282</v>
       </c>
       <c r="K29" t="s">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="L29" t="s">
-        <v>256</v>
+        <v>284</v>
       </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>257</v>
+        <v>285</v>
       </c>
       <c r="O29" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -3141,50 +3346,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>256</v>
+        <v>284</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>21100</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>286</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>258</v>
+        <v>287</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>259</v>
+        <v>288</v>
       </c>
       <c r="J30" t="s">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="K30" t="s">
-        <v>261</v>
+        <v>290</v>
       </c>
       <c r="L30" t="s">
-        <v>262</v>
+        <v>291</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>263</v>
+        <v>292</v>
       </c>
       <c r="O30" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -3198,50 +3407,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>262</v>
+        <v>291</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>21100</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>293</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>264</v>
+        <v>294</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>265</v>
+        <v>295</v>
       </c>
       <c r="J31" t="s">
-        <v>266</v>
+        <v>296</v>
       </c>
       <c r="K31" t="s">
-        <v>267</v>
+        <v>297</v>
       </c>
       <c r="L31" t="s">
-        <v>268</v>
+        <v>298</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>269</v>
+        <v>299</v>
       </c>
       <c r="O31" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -3259,50 +3472,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>268</v>
+        <v>298</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>21100</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>300</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>270</v>
+        <v>301</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>271</v>
+        <v>302</v>
       </c>
       <c r="J32" t="s">
-        <v>272</v>
+        <v>303</v>
       </c>
       <c r="K32" t="s">
-        <v>273</v>
+        <v>304</v>
       </c>
       <c r="L32" t="s">
-        <v>274</v>
+        <v>305</v>
       </c>
       <c r="M32" t="n">
         <v>3</v>
       </c>
       <c r="N32" t="s">
-        <v>275</v>
+        <v>306</v>
       </c>
       <c r="O32" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P32" t="n">
         <v>4</v>
@@ -3326,41 +3543,45 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>274</v>
+        <v>305</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>21100</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>145</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>276</v>
+        <v>307</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>277</v>
+        <v>308</v>
       </c>
       <c r="J33" t="s">
-        <v>278</v>
+        <v>309</v>
       </c>
       <c r="K33" t="s">
-        <v>279</v>
+        <v>310</v>
       </c>
       <c r="L33" t="s">
-        <v>280</v>
+        <v>311</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
@@ -3379,41 +3600,45 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>280</v>
+        <v>311</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>21100</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>145</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>281</v>
+        <v>312</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>282</v>
+        <v>313</v>
       </c>
       <c r="J34" t="s">
-        <v>283</v>
+        <v>314</v>
       </c>
       <c r="K34" t="s">
-        <v>284</v>
+        <v>315</v>
       </c>
       <c r="L34" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="M34" t="n">
         <v>1</v>
@@ -3432,7 +3657,7 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>
